--- a/APLAI/experiments/results_battleships.xlsx
+++ b/APLAI/experiments/results_battleships.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>CHR</t>
   </si>
@@ -54,6 +54,9 @@
   <si>
     <t>Median</t>
   </si>
+  <si>
+    <t>std dev</t>
+  </si>
 </sst>
 </file>
 
@@ -70,6 +73,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -92,6 +96,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,10 +179,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M9" activeCellId="0" sqref="M9"/>
+      <selection pane="topLeft" activeCell="Q26" activeCellId="0" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -465,6 +470,12 @@
       <c r="N8" s="0" t="n">
         <v>4441.99</v>
       </c>
+      <c r="P8" s="0" t="n">
+        <v>133033</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>4066.69</v>
+      </c>
       <c r="S8" s="0" t="n">
         <v>135231</v>
       </c>
@@ -495,6 +506,24 @@
       <c r="K9" s="0" t="n">
         <v>61.96</v>
       </c>
+      <c r="M9" s="0" t="n">
+        <v>40376</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>722.96</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>30938</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>578.02</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>34425</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>713.19</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="2" t="n">
@@ -519,6 +548,24 @@
       <c r="K10" s="0" t="n">
         <v>2.82</v>
       </c>
+      <c r="M10" s="0" t="n">
+        <v>2674</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>57.14</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>1809</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>35.34</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>2200</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>59.07</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="2" t="n">
@@ -543,6 +590,24 @@
       <c r="K11" s="0" t="n">
         <v>5.92</v>
       </c>
+      <c r="M11" s="0" t="n">
+        <v>2243</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>73.64</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>1043</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>2695</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>75.58</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="2" t="n">
@@ -567,6 +632,24 @@
       <c r="K12" s="0" t="n">
         <v>3.23</v>
       </c>
+      <c r="M12" s="0" t="n">
+        <v>9714</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>323.23</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>5628</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>130.44</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>14428</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>436.82</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="2" t="n">
@@ -591,6 +674,24 @@
       <c r="K13" s="0" t="n">
         <v>102.46</v>
       </c>
+      <c r="M13" s="0" t="n">
+        <v>34608</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>716.53</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>11682</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>233.58</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>1.66</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="2" t="n">
@@ -615,6 +716,24 @@
       <c r="K14" s="0" t="n">
         <v>251.26</v>
       </c>
+      <c r="M14" s="0" t="n">
+        <v>93906</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>2157.2</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>75806</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>3132.62</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>18898</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>765.76</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="2" t="n">
@@ -639,6 +758,24 @@
       <c r="K15" s="0" t="n">
         <v>3.32</v>
       </c>
+      <c r="M15" s="0" t="n">
+        <v>1186</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>20.77</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>1022</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>33.98</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>576</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>17.94</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="2" t="n">
@@ -663,6 +800,24 @@
       <c r="K16" s="0" t="n">
         <v>41.82</v>
       </c>
+      <c r="M16" s="0" t="n">
+        <v>1009</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>5810</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <v>192.55</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="2" t="n">
@@ -687,6 +842,24 @@
       <c r="K17" s="0" t="n">
         <v>3.78</v>
       </c>
+      <c r="M17" s="0" t="n">
+        <v>1345</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>1131</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2" t="n">
@@ -711,6 +884,24 @@
       <c r="K18" s="0" t="n">
         <v>0.68</v>
       </c>
+      <c r="M18" s="0" t="n">
+        <v>652</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>592</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>19.35</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="2" t="n">
@@ -735,6 +926,24 @@
       <c r="K19" s="0" t="n">
         <v>4.79</v>
       </c>
+      <c r="M19" s="0" t="n">
+        <v>24785</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>562.24</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>21409</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>388.45</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>14458</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>349.07</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="2" t="n">
@@ -759,6 +968,24 @@
       <c r="K20" s="0" t="n">
         <v>5.74</v>
       </c>
+      <c r="M20" s="0" t="n">
+        <v>204</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>247</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>2486</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>35.29</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="2" t="n">
@@ -783,6 +1010,24 @@
       <c r="K21" s="0" t="n">
         <v>10.7</v>
       </c>
+      <c r="M21" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>0.56</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="2" t="n">
@@ -807,6 +1052,24 @@
       <c r="K22" s="0" t="n">
         <v>13.33</v>
       </c>
+      <c r="M22" s="0" t="n">
+        <v>66405</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>3181.96</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>103954</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>3062.32</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <v>58471</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <v>2847.14</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="2" t="n">
@@ -831,6 +1094,24 @@
       <c r="K23" s="0" t="n">
         <v>56.97</v>
       </c>
+      <c r="M23" s="0" t="n">
+        <v>19619</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>392.29</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>42449</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>882.75</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <v>54415</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <v>1098.56</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="2" t="n">
@@ -855,6 +1136,24 @@
       <c r="K24" s="0" t="n">
         <v>10.04</v>
       </c>
+      <c r="M24" s="0" t="n">
+        <v>218</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>438</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <v>2180</v>
+      </c>
+      <c r="T24" s="0" t="n">
+        <v>36.19</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="2" t="n">
@@ -879,6 +1178,24 @@
       <c r="K25" s="0" t="n">
         <v>40.04</v>
       </c>
+      <c r="M25" s="0" t="n">
+        <v>15625</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>226.18</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>19247</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <v>151.16</v>
+      </c>
+      <c r="S25" s="0" t="n">
+        <v>19775</v>
+      </c>
+      <c r="T25" s="0" t="n">
+        <v>247.09</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="2" t="n">
@@ -903,6 +1220,24 @@
       <c r="K26" s="0" t="n">
         <v>1.54</v>
       </c>
+      <c r="M26" s="0" t="n">
+        <v>236</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <v>1096</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <v>13.24</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="2" t="n">
@@ -915,11 +1250,35 @@
       <c r="E27" s="0" t="n">
         <v>38.142</v>
       </c>
+      <c r="G27" s="0" t="n">
+        <v>95596</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>4126.02</v>
+      </c>
       <c r="J27" s="0" t="n">
         <v>12314</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>459.82</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>106004</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>3302.35</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>29977</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <v>838.73</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <v>137409</v>
+      </c>
+      <c r="T27" s="0" t="n">
+        <v>5193.26</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -936,11 +1295,11 @@
       </c>
       <c r="G29" s="0" t="n">
         <f aca="false">AVERAGE(G3:G27)</f>
-        <v>9415.83333333333</v>
+        <v>12863.04</v>
       </c>
       <c r="H29" s="0" t="n">
         <f aca="false">AVERAGE(H3:H27)</f>
-        <v>268.415416666667</v>
+        <v>422.7196</v>
       </c>
       <c r="J29" s="0" t="n">
         <f aca="false">AVERAGE(J3:J27)</f>
@@ -952,27 +1311,27 @@
       </c>
       <c r="M29" s="0" t="n">
         <f aca="false">AVERAGE(M3:M27)</f>
-        <v>46563.6666666667</v>
+        <v>28013.56</v>
       </c>
       <c r="N29" s="0" t="n">
         <f aca="false">AVERAGE(N3:N27)</f>
-        <v>1268.92166666667</v>
+        <v>777.1308</v>
       </c>
       <c r="P29" s="0" t="n">
         <f aca="false">AVERAGE(P3:P27)</f>
-        <v>17262.6</v>
+        <v>22658.12</v>
       </c>
       <c r="Q29" s="0" t="n">
         <f aca="false">AVERAGE(Q3:Q27)</f>
-        <v>568.496</v>
+        <v>657.328</v>
       </c>
       <c r="S29" s="0" t="n">
         <f aca="false">AVERAGE(S3:S27)</f>
-        <v>32010.6666666667</v>
+        <v>22485.92</v>
       </c>
       <c r="T29" s="0" t="n">
         <f aca="false">AVERAGE(T3:T27)</f>
-        <v>757.5</v>
+        <v>665.9256</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -989,11 +1348,11 @@
       </c>
       <c r="G30" s="0" t="n">
         <f aca="false">MEDIAN(G3:G27)</f>
-        <v>2947</v>
+        <v>2981</v>
       </c>
       <c r="H30" s="0" t="n">
         <f aca="false">MEDIAN(H3:H27)</f>
-        <v>56.695</v>
+        <v>58.95</v>
       </c>
       <c r="J30" s="0" t="n">
         <f aca="false">MEDIAN(J3:J27)</f>
@@ -1005,15 +1364,15 @@
       </c>
       <c r="M30" s="0" t="n">
         <f aca="false">MEDIAN(M3:M27)</f>
-        <v>30429</v>
+        <v>9714</v>
       </c>
       <c r="N30" s="0" t="n">
         <f aca="false">MEDIAN(N3:N27)</f>
-        <v>719.55</v>
+        <v>226.18</v>
       </c>
       <c r="P30" s="0" t="n">
         <f aca="false">MEDIAN(P3:P27)</f>
-        <v>6773</v>
+        <v>5628</v>
       </c>
       <c r="Q30" s="0" t="n">
         <f aca="false">MEDIAN(Q3:Q27)</f>
@@ -1021,11 +1380,64 @@
       </c>
       <c r="S30" s="0" t="n">
         <f aca="false">MEDIAN(S3:S27)</f>
-        <v>1544.5</v>
+        <v>2486</v>
       </c>
       <c r="T30" s="0" t="n">
         <f aca="false">MEDIAN(T3:T27)</f>
-        <v>45.97</v>
+        <v>59.07</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <f aca="false">STDEV(D3:D27)</f>
+        <v>185265334.467873</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <f aca="false">STDEV(E3:E27)</f>
+        <v>27.380475084264</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <f aca="false">STDEV(G3:G27)</f>
+        <v>23544.2417827233</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <f aca="false">STDEV(H3:H27)</f>
+        <v>944.44817056699</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <f aca="false">STDEV(J3:J27)</f>
+        <v>4092.48362366913</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <f aca="false">STDEV(K3:K27)</f>
+        <v>144.004374629153</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <f aca="false">STDEV(M3:M27)</f>
+        <v>39522.2437148584</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <f aca="false">STDEV(N3:N27)</f>
+        <v>1221.06359585582</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <f aca="false">STDEV(P3:P27)</f>
+        <v>35564.2983450632</v>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <f aca="false">STDEV(Q3:Q27)</f>
+        <v>1169.90560810834</v>
+      </c>
+      <c r="S31" s="0" t="n">
+        <f aca="false">STDEV(S3:S27)</f>
+        <v>38796.021442196</v>
+      </c>
+      <c r="T31" s="0" t="n">
+        <f aca="false">STDEV(T3:T27)</f>
+        <v>1283.17408804327</v>
       </c>
     </row>
   </sheetData>
